--- a/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. The Subcommittee on Housing and Insurance will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Opportunities and Challenges Facing the National Flood Insurance Program.''    I would like to thank the witnesses for appearing today. We look forward to your testimony.    I now recognize myself for 3 minutes to give an opening statement.    My district is home to many communities that lie in flood plains near major rivers, streams, and lakes. Many of the towns I represent, like so many communities across the Nation, are suffering from some of the most destructive flood scenes in years.    While the long-term repercussions are yet to be fully known, previous experience has continually brought to light many issues surrounding the National Flood Insurance Program (NFIP). Within the past 5 years, nearly every one of the 50 States has experienced flooding. In the past decade, insurance claims stemming from flood damage have averaged $3.5 billion a year. It is not surprising, then, that flooding is the number one natural disaster in the United States. As a result, the NFIP today has an outstanding debt of approximately $23 billion borrowed from the Treasury, with $7.45 billion remaining of its total temporary borrowing authority.    I have previously voiced concerns about the administration, operation, and suitability of the NFIP. Time and time again, we see Americans suffer because of governmental failure and inaction in times of greatest need. Authorization of the NFIP will expire on September 30, 2017. Unlike in previous years, it is my hope that Congress can avoid coverage lapses that leave economies along the Missouri and Mississippi Rivers and local economies in every congressional district in a lurch. At the same time, we all recognize, regardless of political affiliation, that the status quo isn't acceptable.    Throughout this year, this committee will aim to garner more information on the NFIP, examine whether or not changes to flood insurance are likely to solve longstanding issues, and develop ways to fix a broken system in order to ensure it does more to benefit all parties involved.    I look forward to today's testimony and to the start of what I hope is a productive conversation on the future of flood insurance in America. My hope is that, at some point over the course of this year, we will be able to get enough information so that we can put together the reauthorization bill by the end of the year and that we will take next year, 2017, to be able to then authorize that bill, fine-tune it, and get it to the point where we can pass it and avoid the management by crisis that we do around here on a regular basis.    However, that being said, I look forward to today's testimony.    With that, the Chair now recognizes the ranking member of the subcommittee, the gentleman from Missouri, my good friend Mr. Cleaver, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman, and members of the subcommittee, as well as the witnesses today, especially Tom Woods. Woods Custom Homes is one of the most significant and successful builders in my area. And Tom Woods, of course, served as a mayor of Blue Springs probably 10 years before I served as mayor of Kansas City. And I am so pleased that he is here. And he knows, as well as people in the State of Missouri, as you have already indicated, Mr. Chairman, this is a significant issue with which we are dealing.    And this hearing is particularly appropriate. In the last few weeks, flooding from the Mississippi River has damaged homes and businesses in Missouri. Now, my congressional district was spared much of the damage to homes and businesses that hit the western and southwestern part of our State. Closer to home, I do often hear from farmers in my district who remain extremely concerned over flooding risks in their fields.    As we all know, the National Flood Insurance Program was created in 1968 through the passage of the National Flood Insurance Act in response to a limited number of available companies--private companies--which were interested in providing flood insurance.    The NFIP provides flood insurance to many property owners in designated areas as well as develops the flood insurance rate maps and promotes mitigation activities.    Since 1968, the act of NFIP has been amended many times, more recently through what we all affectionately call the Biggert-Waters Act of 2012, and the Homeowner Flood Insurance Affordability Act of 2014.    With the need for authorization around the corner, today we have the opportunity to fully discuss this issue, and more specifically, it gives us a chance to consider the importance of retaining flood insurance as well as how we can improve this program.    I am going to be the last person to ever say that the issues we deal with in Federal agencies are perfect. They are imperfect. The only thing perfect is the 11 consecutive games won by the Kansas City Chiefs.    I look forward, Mr. Chairman, to this hearing.    And now I will ask if the ranking member, Ms. Waters, would like the remainder of my time?</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellis. Thank you.    Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, Ranking Member Waters, and members of the subcommittee. I am Steve Ellis, vice president of Taxpayers for Common Sense, a national nonpartisan budget watchdog. Thank you for inviting us to testify on opportunities and challenges facing the National Flood Insurance Program. Taxpayers for Common Sense is aligned with Smarter Safer, a coalition that is in favor of promoting public safety through fiscally sound, environmentally responsible approaches to natural catastrophe policy. The groups involved represent a broad set of interests from free market and taxpayer groups to consumer and housing advocates to environmental and insurance industry groups. All of the groups agree that NFIP should be made more responsible and greater reforms are needed.    I have a more extensive discussion of the opportunities and challenges facing NFIP in my written testimony, but in my short time now, I would like to address four of the points the committee raised in the letter inviting me to testify.    The committee asked, is the NFIP the ideal model for effective protection of residential and commercial property owners? No. And not just because it is $23 billion in debt to taxpayers. As was mentioned, the NFIP was created nearly 50 years ago because of a market failure. Today, the insurance industry is hungry for this risk and can provide it. To be clear, I am not suggesting eliminating NFIP tomorrow or anything close to that. The community rating system encourages mitigation, and there are properties that would see significantly higher premiums in the private marketplace.    But a primarily private sector program is where flood insurance is heading and should head, and FEMA has indicated as such, that it is heading this way. This is already happening, and in the coming decades, NFIP will likely become a residual market for policyholders who cannot obtain private flood insurance. This would be a limited set of policies, and it is not unlike residual homeowners' insurance programs at the State level. But Congress should be intentional about this development and ensure mitigation benefits achieved by NFIP are retained and funds for mapping maintained.    The committee asked about FEMA's efforts to accurately predict flood risks, price flood risk, and create an effective administrative mechanism to serve policyholders. I know FEMA is working hard to update the maps and has the new Technical Mapping Advisory Council to help guide them in their work. I also know that mapping efforts have not received full funding in the last several years, which inhibits their progress.    That said, more needs to be done for the public to have a greater understanding of their flood risk. FEMA is tasked with mapping this special flood hazard area for the mandatory purchase requirement. That is a Federal mandate that isn't likely to change. However, these maps are static; lines on a map designating various flood risk areas and charging various rates based on those risks. If a homeowner has an elevation certificate that proves they are elevated out of the flood plain, they can have those rates adjusted. But the creation of the rates as a sort of black box is not entirely clear that even full risk rates are actuarially sound. In some cases, there are significant cross subsidies where lower risk properties pay more to maintain subsidies for higher risk properties.    The committee also asked how NFIP in the private sector could better serve high-impacted communities and modernized mapping systems while incorporating local community mitigation efforts. There is no way around it. The maps have to be more accurate and smarter. There is a whole industry that has very accurate data. FEMA should explore data sharing and further contracting with them. There are also many different Federal agencies that engage in mapping. This should be better coordinated and shared among agencies to avoid duplication.    This is also where--and I know this is outside the committee's jurisdiction--the Nation's mitigation and pre-disaster programs have to dovetail with NFIP and post-disaster response.    Finally, the committee asked about the issue of affordability for families without the resources to pay actuarial flood rates. The affordability issue has to be addressed, but it must be done in a means-tested, targeted, and time-limited manner. Current subsidies are effectively hidden from the homeowner, which eliminates any price signal of risk or incentive to mitigate to reduce the risk and thereby the premium. Masking subsidies with lower rates prevents policyholders from understanding the true level of their risk. As was noted in the privatization report mandated by Biggert-Waters, subsidized rates ``can promote and have promoted poor decisions on the part of property owners and political representatives. They also create a moral hazard, especially when the subsidies are not well targeted.'' The report continues, that the presence of subsidies ``removes the incentive to undertake mitigation efforts, thereby encouraging ever-increasing societal costs.'' A far better approach is to encourage and fund mitigation measures that could serve to reduce rates by reducing risk.    In conclusion, private insurers are ready to write flood insurance, and as NFIP rates rise in the program to be more in line with risks, this will become even more so. With more insurers writing flood insurance, there should be a growth in overall coverage in the United States while the Federal program develops into a residual market. This will take a decade or maybe 2 decades or more, but Congress should work with the Executive Branch to manage the transition and use targeted mitigation tactics that make these remaining policies more commercially insurable.    There is no need for the Federal Government to further extend into the catastrophe insurance market through reinsurance or other means.    Thank you for the opportunity to testify. I am happy to answer any questions you may have.    [The prepared statement of Mr. Ellis can be found on page 36 of the appendix.]</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Heidrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heidrick. Thank you.    Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, Ranking Member Waters, and members of the subcommittee. My name is Chris Heidrick, and I am pleased to be here today on behalf of the Independent Insurance Agents and Brokers of America, or the Big ``I,'' to present the Association's perspective on flood insurance and the National Flood Insurance Program. We commend the subcommittee for looking at this very important issue.    I am the principal of an independent insurance agency located in Sanibel, Florida. I regulate and counsel clients of all sizes regarding flood insurance. I also hold the designation of associate in national flood insurance. I currently serve as the chairman of the Big ``I'' Flood Insurance Task Force and represent the Big ``I'' on the Flood Insurance Producers' National Committee.    The Big ``I'' is the Nation's largest and oldest trade association of independent insurance agents and brokers, and we represent a nationwide network of approximately a quarter of a million agents, brokers, and employees. Working with Write Your Own companies, many of these agents serve as the sales force for the NFIP. It is from this vantage point that Big ``I'' members understand the capabilities and challenges of the insurance market when it comes to ensuring against flood risks. The Big ``I'' believes the NFIP provides a vital service for the people and places that have been hit by a natural disaster. Recent severe flooding in Missouri and across the central United States has provided an unsettling reminder of the terrible damage that flooding can cause, and the NFIP is virtually the only way for many people to protect against the loss of their home and business due to flood damage.    Despite our support of the NFIP, the Big ``I'' also recognizes that the program is far from perfect. The program has recently faced scrutiny for its handling of Superstorm Sandy claims and has a debt of approximately $23 billion. But it is important to note that for more than 2 decades, up until the 2005 hurricane season, no taxpayer money had been used to support the NFIP. The NFIP was able to support itself using funds from the insurance premiums it collected.    In order for the NFIP to move forward toward financial solvency, rate adequacy should be examined. However, it must be done with careful consideration to avoid market disruption and other unintended consequences. For the NFIP to regain any sort of solid financial footing, the number of policies needs to increase, not decrease. As Congress considers possible reforms to the program, careful analysis of their potential impact on policy take-up rates and retention should be paramount.    Now, I would like to talk about the role of the insurance agent in the delivery of flood insurance, which is considerably more complex than most traditional property and casualty lines. Independent agents are an essential part of the consumer experience when purchasing a flood policy. Placing a new policy on a property located in a special flood hazard area where the government requires flood insurance for any home with a federally-backed mortgage is an intensive process that can take multiple days, if not weeks, to complete.    Furthermore, when consumers are ``not in a flood zone,'' they often believe they don't need flood insurance when, in fact, this is not the case. Properties outside of this special flood hazard area comprise over 20 percent of all NFIP flood insurance claims and receive one-third of Federal disaster assistance for flooding. It is my job to explain the flood insurance options available to consumers and to make sure they understand the consequences of their purchase decision.    As you know, the NFIP is a congressionally authorized program that requires periodic extensions. The NFIP is currently scheduled to expire on September 30, 2017, and the Big ``I'' strongly urges Congress to pass a long-term extension as soon as possible. Instability and uncertainty created by short-term and sometimes retroactive or last-minute extensions can lead to concrete damages in the real estate and development market as well as the country's economy overall.    Briefly, regarding the private market, which I know the subcommittee is exploring in a separate hearing tomorrow, the Big ``I'' supports H.R. 2901, the Flood Insurance Market Parity and Modernization Act, as introduced. I would like to thank Representatives Ross and Murphy for taking the lead on this bipartisan legislation. This bill ensures that policyholders can move seamlessly between the private market and the NFIP. The Big ``I'' believes that the private flood insurance market can play a valuable but limited role as a complement to the NFIP in protecting homes and businesses but lacks the capability to underwrite flood insurance on a pervasive basis to meet customer needs.    In conclusion, the Big ``I'' strongly supports the NFIP and the continued role of our members as the distribution force for the program. The NFIP is essential for millions of Americans, and ensuring the long-term stability of the program is of vital importance. I thank the subcommittee for holding this hearing and I look forward to answering any questions you may have.    [The prepared statement of Mr. Heidrick can be found on page 43 of the appendix.]</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t xml:space="preserve">    Chairman Luetkemeyer. Ms. Templeton-Jones, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Templeton-Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Templeton-Jones. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee. My name is Patty Templeton-Jones. I am executive vice president and chief program advocate of Wright National Flood Insurance Company, which is based in Florida and domiciled in Texas. Thank you for the opportunity to testify.    Wright National Flood Insurance Company is a Write Your Own flood insurance partner with the NFIP for the Write Your Own Program. WNFIC is the largest writer of flood insurance in the Nation. Wright National Flood Insurance Services, our processing center, is also active in the private flood insurance market growing outside of the NFIP. Wright National Flood is a member of the Property Casualty Insurers Association of America, which is composed of nearly 1,000 member companies, including two-thirds of the Write Your Own insurers that partner with the NFIP to administer the National Flood Insurance Program.    My testimony today is provided on behalf of PCI and its nearly 1,000 member companies. Today, I would like to: first, draw your attention to the dramatic increase in private capital available to underwrite flood coverage outside the NFIP; second, underscore the importance of consensus for the long-term reforms needed to provide stability in the NFIP throughout the lengthy transition period necessary for significant market for flood coverage to develop outside the NFIP; third, highlight several key issues policymakers need to consider before any period of transition begins; and finally, suggest several broad categories on which such long-term consensus reforms should focus.    Without question, the biggest change in the flood insurance landscape since Congress last authorized the NFIP is that now, for the first time in a generation, substantial sources of private capital are available and actively interested in writing primary flood insurance coverage. Today, an increasing number of private insurers are planning on entering into the private flood market.    In response, State insurance regulators, like those from Florida and Pennsylvania, are engaging insurers with the intention of fully incorporating flood insurance into the U.S. State system of insurance regulation.    The 48-year-old NFIP has experienced significant turmoil over its history. Program uncertainty and confusion peaked between 2008 and 2012 as the NFIP suffered through a period of more than a dozen short-term program lapses and extensions. Unfortunately, a decade of program uncertainty, lapses, and midstream operational changes have not only caused numerous insurers to leave the Write Your Own Program but have repeatedly disrupted the housing market and caused ripple effects throughout the larger economy.    Developing consensus on long-term reforms, and restructuring and reauthorizing the NFIP well before the September 2017 expiration, is the single most important thing Congress can do to foster certainty in the flood insurance marketplace and encourage the continued development of market-oriented solutions in flood risk management.    The availability and interests of significant sources of private capital to provide primary flood insurance coverage outside the NFIP represents a paradigm shift. It presents the opportunity for a gradual transition toward a flood insurance marketplace in which an increasing share of risk is borne by private capital.    However, the growth of a private primary flood insurance market does not mean the elimination of the need for the NFIP, particularly, as the private market will not be willing to assume all flood risk or be acceptable to all buyers. In advance of any significant transition into the flood insurance market, topics policyholders need to consider are: first, should the NFIP become a national residual market or market of last resort for the substantial number of properties the private market will be unable or unwilling to insure; second, how is the NFIP's mission to encourage the purchase of flood insurance by providing affordable coverage impacted by the growth of the private insurance market; and lastly, how will the NFIP's mapping and flood mitigation functions be funded if policyholders leave the NFIP and purchase private flood insurance?    Detailed in my written testimony are a number of immediate operational reforms that FEMA can take up on its own that the subcommittee may wish to consider in an oversight role. In the immediate term, Congress could and should bolster the development of a robust private flood insurance market by passing the bipartisan and bicameral Ross-Murphy-Heller-Tester Flood Insurance Market Parity and Modernization Act of 2015, H.R. 2901. This straightforward legislation addresses post-Biggert-Waters Flood Insurance Reform Act of 2012 (BW-12) regulatory confusion and provides homeowners greater coverage options in pricing.    In conclusion, PCI and Wright National supports the committee's review of NFIP in consideration of how to encourage additional private participation in flood underwriting and accordingly limit taxpayer risk. We would also suggest that even if the subcommittee and Congress ultimately reshape the marketplace, there will be a necessary long-term transition. Given the NFIP's important role in the lives of so many Americans, it is critical to develop a strong, bipartisan consensus for a stable, long-term reform in advance of the program's 2014 expiration.    I thank the members of the subcommittee for this timely subject: reimagining flood risk management in advance of the November 2017 reauthorization of the NFIP. I am happy to address any questions, and I look forward to working with the subcommittee throughout this process.    [The prepared statement of Ms. Templeton-Jones can be found on page 48 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. Thank you, Ms. Templeton-Jones.    And finally, we will go to Mr. Woods.    Mr. Woods, I want to thank you, again, for your participation last week in our flood mapping roundtable. I realize this is your second visit to D.C. in 2 weeks, so we appreciate your willingness to work with us, to enlighten us, and to represent your association, which you do very well.    So, again, as a fellow Missourian, welcome to our committee, Mr. Woods.    And you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Woods</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woods. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, thank you for the opportunity to testify today. My name is Tom Woods, and I am a builder from Blue Springs, Missouri, and the National Association of Home Builders (NAHB) chairman of the board. NAHB has a long history of supporting NFIP, and we are committed to ensuring that it remains a viable and affordable program to its policyholders while being mindful of the costs to the American taxpayer.    NAHB commends the subcommittee on addressing this critical issue early in the year, and we look forward to working with you and your colleagues as you contemplate changes to the NFIP to ensure that federally-backed flood insurance remains available, affordable, and financially stable.    The unprecedented losses suffered in 2005 and in 2012, including the devastation brought on by Hurricanes Katrina and Sandy, have severely taxed and threatened the solvency of the     While these events have been tragic and sobering, resulting reforms must not be overreaction to exceptional circumstances.    Instead, reforms should take the form of thoughtful, deliberate, and reasoned solutions. A key step in this process is to take stock of where we are today, what has worked, and what has not.    While the NAHB supports the passage of BW-12 to ensure the continuation of the NFIP, the legislation created unintended consequences that resulted in dramatic flood insurance premium hikes that hurt the sale, construction, and remodeling of homes. The combination of inaccurate mapping into higher risk flood zones, and the immediate shift to full actuarial rates for many homeowners resulted in increases that priced prospective buyers out of their developments and forced the cancellation of sales, harming communities.    HFIAA fixed many of the problems associated with BW-12. It provided that those who were charged higher rates should be refunded for excess premiums, specified that properties should and would continue to pay their grandfathered rates, and repealed the requirement that flood insurance premium increase immediately to full actuarial rates upon the sale of a home. The return to grandfathered rates provided a more affordable rate structure for policyholders. NAHB has estimated that in 2014, because of HFIAA, there was $755 million more in new construction and $361 million a year in additional remodeling.    Any reform efforts need to address the accuracy of the flood insurance rate maps. For flood maps to be fair and accurate, they have to take into account all flood-control structures. Consequently, many properties are incorrectly mapped into flood plains, which results in homeowners being forced to purchase unneeded flood insurance. It typically takes years for those mistakes to be fixed, often requiring a lengthy and costly appeals process for the community, the builder, and the homeowner.    There is an opportunity for home builders or landowners to elevate plots of land out of the flood plain through the letter of map change process. For example, I engaged in a CLOMR-F process in a subdivision I built in Independence, Missouri. It took over 8 months and a quarter of a million dollars for FEMA to approve the map change. In States with short construction seasons, going through the letter of map change process could create devastating costs and delays.    I would like to thank the subcommittee for the opportunity to share NAHB's views. Home builders have long supported commonsense changes to the NFIP, and we urge Congress to continue to support and protect small business owners and homeowners from the exorbitant rate hikes and inaccurate mapping we have seen in the past.    Thank you.    [The prepared statement of Mr. Woods can be found on page 60 of the appendix.]</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman.    Mr. Woods, could you give us a little bit more explanation? You said, ``if the regulators would stop being adversarial,'' I think was your last statement. Could you give us a little bit more insight into that adversarial relationship?</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ross. Thank you, Mr. Chairman.    And I thank the panel for being here.    In 1973, it seemed like a good idea that we would carve out from an all-perils policy flood insurance. It just seemed like the thing to do at the time on behalf of consumers. As we fast forward to today, it is somewhat akin to carved-out cardiology coverage under a health insurance policy and led to terrible results and not to the benefit of the consumer. So trying to put these back together, I think, is not necessarily a function of the Federal Government, but more a function of those who are willing to put at risk their capital to make sure that they can not only manage that risk but to do so at the benefit of the consumer.    Mr. Ellis, you talk in your testimony about an all-perils policy, that including flood into an all-perils policy may, quite frankly, not only engage the consumer into wanting to buy flood insurance at a cheaper price because they will have limited risk, but, yet, the price of it would be so much cheaper that we in fact may cover more people through the privatization of flood insurance than putting it into an all-perils policy. Would you expound on that?</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and I thank you and the ranking member for conducting this hearing.    Mr. Ellis, the question of how to balance the goals of affordability and risk-based rates has been a key question for Congress in seeking to improve the National Flood Insurance Program over the years. Do you believe that these goals are fundamentally opposed, or do you believe that there is a way to appropriately balance these goals?</t>
   </si>
   <si>
@@ -331,9 +304,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman. We will start with Mr. Ellis, and the question I have is, can you describe how the National Flood Insurance Program discourages private insurance, if at all?</t>
   </si>
   <si>
@@ -385,9 +355,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And thank you, Mr. Ranking Member. And I thank the witnesses for appearing as well. Let's for just a moment look at the markets in terms of how they impact affordability, more specifically, the residual market juxtaposed to the voluntary market.    For our purposes, I think it is fair to say that the residual market is a market of last resort. The voluntary market is a competitive market. And the way we structure the residual market is going to have a lot to do with affordability. So I would like, Mr. Ellis, to visit with you, because I have read your testimony in its entirety, and the last paragraph of it where you give your conclusion, I think, is quite revealing. You indicate that the Federal Government will develop the residual market. How will that market be developed such that we will still have competition in the voluntary market, and not have the taxpayers assume all of the high-risk persons that the voluntary competitive market does not find beneficial in the sense of profits and loss, market demands?    And I mention this to you because, as you know, with the health insurance we find ourselves with insurance companies assuming a lot of clients, if you will, who are not over age 62 to 65. When you get above that, insurance companies are not enthralled with the notion of having you as a client, customer. And given that I am above that age, I kind of look into these things, as you can well understand. I see you smiling, so you understand what I am talking about.    So what I am interested in is finding out how do we have a residual market that will have a positive impact on affordability given that the voluntary market is where everybody wants to be, and getting insurance companies to go residual can be exceedingly difficult?</t>
   </si>
   <si>
@@ -415,9 +382,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman. Mr. Heidrick, in your written testimony you assert that ``private insurance industry lacks the capability to underwrite flood insurance on a pervasive basis to meet customer needs.'' Could you elaborate on how you and the Big ``I'' arrived at that assessment?</t>
   </si>
   <si>
@@ -463,9 +427,6 @@
     <t>400661</t>
   </si>
   <si>
-    <t>Gwen Moore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much, Mr. Chairman, and let me join the chairman and the ranking member in thanking and welcoming this distinguished panel.    It is hard to know who to ask questions of because all of your testimony has been very compelling. But I want to ask a question, and I want to prioritize getting answers from Mr. Ellis, Mr. Woods, and Mr. Heidrick.    And I just want to reference the fact that Ms. Templeton-Jones, in your testimony you talked about the number of insurers that are just leaving the program because of the lapses and so on. So with that in mind, my question relates to a provision that I was able to get into the Biggert-Waters legislation, just a simple study of community-based insurance, and I was just wondering how some of the challenges, I believe it was Mr. Ellis, you mentioned, you laid it out very clearly, the debt, adverse selection, subsidies, the accuracy or lack thereof of the mapping.    How would a community-based flood program fit in with some of the solutions that you all have suggested, giving incentives for cities and States to do mitigation, really bringing more re-insurance and money and private sector dollars into a program, maybe mitigating the adverse selection by having a community-wide effort? I'm just wondering what your thoughts were on that?</t>
   </si>
   <si>
@@ -497,9 +458,6 @@
   </si>
   <si>
     <t>400348</t>
-  </si>
-  <si>
-    <t>Edward R. Royce</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I just would build on a conversation that Mr. Clay had, and this was, Mr. Ellis, in your testimony you said that masking subsidies with lower rates prevents policyholders from understanding their true level of risk. Is my understanding correct that under the current program, policyholders just see the premium payment that they need to make. Right?</t>
@@ -1024,11 +982,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1048,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1076,11 +1030,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1102,11 +1054,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1128,11 +1078,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1152,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1180,11 +1126,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1204,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1232,11 +1174,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1256,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1284,11 +1222,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1308,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1336,11 +1270,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1360,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1388,11 +1318,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1412,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1440,11 +1366,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1464,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1492,11 +1414,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1516,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1544,11 +1462,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1568,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1596,11 +1510,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1620,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1648,11 +1558,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1672,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1698,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1724,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1752,11 +1654,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1776,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1802,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1828,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1854,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1880,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1906,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1932,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1958,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1984,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2010,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2036,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2064,11 +1942,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2088,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2114,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2140,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2166,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2192,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2218,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2244,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2270,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2298,11 +2158,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2322,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2348,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2374,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2400,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2426,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2452,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2478,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2504,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2530,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2556,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2582,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2608,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2634,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2660,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2686,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2712,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2740,11 +2566,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2764,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2790,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2816,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2842,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2870,11 +2686,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2894,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2920,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2946,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2972,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>93</v>
-      </c>
-      <c r="H77" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3000,11 +2806,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3024,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3050,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3076,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3102,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3128,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3154,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3180,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3206,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3232,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H87" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3258,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3284,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3310,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3336,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3362,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3388,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3416,11 +3190,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3440,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3466,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3492,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
-      </c>
-      <c r="G97" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3518,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3544,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3570,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3596,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3624,11 +3382,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3648,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3674,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3700,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3726,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3752,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3778,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3804,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3830,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3856,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3882,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3908,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
-      <c r="H113" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3934,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3960,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3988,11 +3718,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4012,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G117" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4038,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4064,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4090,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4116,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4142,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4168,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4194,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4220,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4248,11 +3958,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4272,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>160</v>
-      </c>
-      <c r="G127" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4298,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4324,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>160</v>
-      </c>
-      <c r="G129" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4350,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4376,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
-      </c>
-      <c r="G131" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4402,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4428,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
-      </c>
-      <c r="G133" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4454,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4480,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4506,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4532,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4558,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4584,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>147</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>160</v>
-      </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
-      <c r="H139" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4612,11 +4294,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4636,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4662,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4688,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4716,11 +4390,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4740,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
-      </c>
-      <c r="G145" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4766,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4792,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>50</v>
-      </c>
-      <c r="G147" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4818,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4844,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
-      </c>
-      <c r="G149" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4870,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4896,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
-      </c>
-      <c r="G151" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4922,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4948,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>50</v>
-      </c>
-      <c r="G153" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4974,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5000,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
-      </c>
-      <c r="G155" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5026,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5052,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
-      </c>
-      <c r="G157" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5078,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5104,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>50</v>
-      </c>
-      <c r="G159" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5132,11 +4774,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5156,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5184,11 +4822,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5208,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5236,11 +4870,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5260,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5288,11 +4918,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5312,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5340,11 +4966,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412292</t>
   </si>
   <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. The Subcommittee on Housing and Insurance will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Opportunities and Challenges Facing the National Flood Insurance Program.''    I would like to thank the witnesses for appearing today. We look forward to your testimony.    I now recognize myself for 3 minutes to give an opening statement.    My district is home to many communities that lie in flood plains near major rivers, streams, and lakes. Many of the towns I represent, like so many communities across the Nation, are suffering from some of the most destructive flood scenes in years.    While the long-term repercussions are yet to be fully known, previous experience has continually brought to light many issues surrounding the National Flood Insurance Program (NFIP). Within the past 5 years, nearly every one of the 50 States has experienced flooding. In the past decade, insurance claims stemming from flood damage have averaged $3.5 billion a year. It is not surprising, then, that flooding is the number one natural disaster in the United States. As a result, the NFIP today has an outstanding debt of approximately $23 billion borrowed from the Treasury, with $7.45 billion remaining of its total temporary borrowing authority.    I have previously voiced concerns about the administration, operation, and suitability of the NFIP. Time and time again, we see Americans suffer because of governmental failure and inaction in times of greatest need. Authorization of the NFIP will expire on September 30, 2017. Unlike in previous years, it is my hope that Congress can avoid coverage lapses that leave economies along the Missouri and Mississippi Rivers and local economies in every congressional district in a lurch. At the same time, we all recognize, regardless of political affiliation, that the status quo isn't acceptable.    Throughout this year, this committee will aim to garner more information on the NFIP, examine whether or not changes to flood insurance are likely to solve longstanding issues, and develop ways to fix a broken system in order to ensure it does more to benefit all parties involved.    I look forward to today's testimony and to the start of what I hope is a productive conversation on the future of flood insurance in America. My hope is that, at some point over the course of this year, we will be able to get enough information so that we can put together the reauthorization bill by the end of the year and that we will take next year, 2017, to be able to then authorize that bill, fine-tune it, and get it to the point where we can pass it and avoid the management by crisis that we do around here on a regular basis.    However, that being said, I look forward to today's testimony.    With that, the Chair now recognizes the ranking member of the subcommittee, the gentleman from Missouri, my good friend Mr. Cleaver, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400639</t>
   </si>
   <si>
+    <t>Cleaver</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman, and members of the subcommittee, as well as the witnesses today, especially Tom Woods. Woods Custom Homes is one of the most significant and successful builders in my area. And Tom Woods, of course, served as a mayor of Blue Springs probably 10 years before I served as mayor of Kansas City. And I am so pleased that he is here. And he knows, as well as people in the State of Missouri, as you have already indicated, Mr. Chairman, this is a significant issue with which we are dealing.    And this hearing is particularly appropriate. In the last few weeks, flooding from the Mississippi River has damaged homes and businesses in Missouri. Now, my congressional district was spared much of the damage to homes and businesses that hit the western and southwestern part of our State. Closer to home, I do often hear from farmers in my district who remain extremely concerned over flooding risks in their fields.    As we all know, the National Flood Insurance Program was created in 1968 through the passage of the National Flood Insurance Act in response to a limited number of available companies--private companies--which were interested in providing flood insurance.    The NFIP provides flood insurance to many property owners in designated areas as well as develops the flood insurance rate maps and promotes mitigation activities.    Since 1968, the act of NFIP has been amended many times, more recently through what we all affectionately call the Biggert-Waters Act of 2012, and the Homeowner Flood Insurance Affordability Act of 2014.    With the need for authorization around the corner, today we have the opportunity to fully discuss this issue, and more specifically, it gives us a chance to consider the importance of retaining flood insurance as well as how we can improve this program.    I am going to be the last person to ever say that the issues we deal with in Federal agencies are perfect. They are imperfect. The only thing perfect is the 11 consecutive games won by the Kansas City Chiefs.    I look forward, Mr. Chairman, to this hearing.    And now I will ask if the ranking member, Ms. Waters, would like the remainder of my time?</t>
   </si>
   <si>
@@ -73,6 +88,12 @@
     <t>412215</t>
   </si>
   <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ellis. Thank you.    Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, Ranking Member Waters, and members of the subcommittee. I am Steve Ellis, vice president of Taxpayers for Common Sense, a national nonpartisan budget watchdog. Thank you for inviting us to testify on opportunities and challenges facing the National Flood Insurance Program. Taxpayers for Common Sense is aligned with Smarter Safer, a coalition that is in favor of promoting public safety through fiscally sound, environmentally responsible approaches to natural catastrophe policy. The groups involved represent a broad set of interests from free market and taxpayer groups to consumer and housing advocates to environmental and insurance industry groups. All of the groups agree that NFIP should be made more responsible and greater reforms are needed.    I have a more extensive discussion of the opportunities and challenges facing NFIP in my written testimony, but in my short time now, I would like to address four of the points the committee raised in the letter inviting me to testify.    The committee asked, is the NFIP the ideal model for effective protection of residential and commercial property owners? No. And not just because it is $23 billion in debt to taxpayers. As was mentioned, the NFIP was created nearly 50 years ago because of a market failure. Today, the insurance industry is hungry for this risk and can provide it. To be clear, I am not suggesting eliminating NFIP tomorrow or anything close to that. The community rating system encourages mitigation, and there are properties that would see significantly higher premiums in the private marketplace.    But a primarily private sector program is where flood insurance is heading and should head, and FEMA has indicated as such, that it is heading this way. This is already happening, and in the coming decades, NFIP will likely become a residual market for policyholders who cannot obtain private flood insurance. This would be a limited set of policies, and it is not unlike residual homeowners' insurance programs at the State level. But Congress should be intentional about this development and ensure mitigation benefits achieved by NFIP are retained and funds for mapping maintained.    The committee asked about FEMA's efforts to accurately predict flood risks, price flood risk, and create an effective administrative mechanism to serve policyholders. I know FEMA is working hard to update the maps and has the new Technical Mapping Advisory Council to help guide them in their work. I also know that mapping efforts have not received full funding in the last several years, which inhibits their progress.    That said, more needs to be done for the public to have a greater understanding of their flood risk. FEMA is tasked with mapping this special flood hazard area for the mandatory purchase requirement. That is a Federal mandate that isn't likely to change. However, these maps are static; lines on a map designating various flood risk areas and charging various rates based on those risks. If a homeowner has an elevation certificate that proves they are elevated out of the flood plain, they can have those rates adjusted. But the creation of the rates as a sort of black box is not entirely clear that even full risk rates are actuarially sound. In some cases, there are significant cross subsidies where lower risk properties pay more to maintain subsidies for higher risk properties.    The committee also asked how NFIP in the private sector could better serve high-impacted communities and modernized mapping systems while incorporating local community mitigation efforts. There is no way around it. The maps have to be more accurate and smarter. There is a whole industry that has very accurate data. FEMA should explore data sharing and further contracting with them. There are also many different Federal agencies that engage in mapping. This should be better coordinated and shared among agencies to avoid duplication.    This is also where--and I know this is outside the committee's jurisdiction--the Nation's mitigation and pre-disaster programs have to dovetail with NFIP and post-disaster response.    Finally, the committee asked about the issue of affordability for families without the resources to pay actuarial flood rates. The affordability issue has to be addressed, but it must be done in a means-tested, targeted, and time-limited manner. Current subsidies are effectively hidden from the homeowner, which eliminates any price signal of risk or incentive to mitigate to reduce the risk and thereby the premium. Masking subsidies with lower rates prevents policyholders from understanding the true level of their risk. As was noted in the privatization report mandated by Biggert-Waters, subsidized rates ``can promote and have promoted poor decisions on the part of property owners and political representatives. They also create a moral hazard, especially when the subsidies are not well targeted.'' The report continues, that the presence of subsidies ``removes the incentive to undertake mitigation efforts, thereby encouraging ever-increasing societal costs.'' A far better approach is to encourage and fund mitigation measures that could serve to reduce rates by reducing risk.    In conclusion, private insurers are ready to write flood insurance, and as NFIP rates rise in the program to be more in line with risks, this will become even more so. With more insurers writing flood insurance, there should be a growth in overall coverage in the United States while the Federal program develops into a residual market. This will take a decade or maybe 2 decades or more, but Congress should work with the Executive Branch to manage the transition and use targeted mitigation tactics that make these remaining policies more commercially insurable.    There is no need for the Federal Government to further extend into the catastrophe insurance market through reinsurance or other means.    Thank you for the opportunity to testify. I am happy to answer any questions you may have.    [The prepared statement of Mr. Ellis can be found on page 36 of the appendix.]</t>
   </si>
   <si>
@@ -82,6 +103,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Heidrick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heidrick. Thank you.    Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, Ranking Member Waters, and members of the subcommittee. My name is Chris Heidrick, and I am pleased to be here today on behalf of the Independent Insurance Agents and Brokers of America, or the Big ``I,'' to present the Association's perspective on flood insurance and the National Flood Insurance Program. We commend the subcommittee for looking at this very important issue.    I am the principal of an independent insurance agency located in Sanibel, Florida. I regulate and counsel clients of all sizes regarding flood insurance. I also hold the designation of associate in national flood insurance. I currently serve as the chairman of the Big ``I'' Flood Insurance Task Force and represent the Big ``I'' on the Flood Insurance Producers' National Committee.    The Big ``I'' is the Nation's largest and oldest trade association of independent insurance agents and brokers, and we represent a nationwide network of approximately a quarter of a million agents, brokers, and employees. Working with Write Your Own companies, many of these agents serve as the sales force for the NFIP. It is from this vantage point that Big ``I'' members understand the capabilities and challenges of the insurance market when it comes to ensuring against flood risks. The Big ``I'' believes the NFIP provides a vital service for the people and places that have been hit by a natural disaster. Recent severe flooding in Missouri and across the central United States has provided an unsettling reminder of the terrible damage that flooding can cause, and the NFIP is virtually the only way for many people to protect against the loss of their home and business due to flood damage.    Despite our support of the NFIP, the Big ``I'' also recognizes that the program is far from perfect. The program has recently faced scrutiny for its handling of Superstorm Sandy claims and has a debt of approximately $23 billion. But it is important to note that for more than 2 decades, up until the 2005 hurricane season, no taxpayer money had been used to support the NFIP. The NFIP was able to support itself using funds from the insurance premiums it collected.    In order for the NFIP to move forward toward financial solvency, rate adequacy should be examined. However, it must be done with careful consideration to avoid market disruption and other unintended consequences. For the NFIP to regain any sort of solid financial footing, the number of policies needs to increase, not decrease. As Congress considers possible reforms to the program, careful analysis of their potential impact on policy take-up rates and retention should be paramount.    Now, I would like to talk about the role of the insurance agent in the delivery of flood insurance, which is considerably more complex than most traditional property and casualty lines. Independent agents are an essential part of the consumer experience when purchasing a flood policy. Placing a new policy on a property located in a special flood hazard area where the government requires flood insurance for any home with a federally-backed mortgage is an intensive process that can take multiple days, if not weeks, to complete.    Furthermore, when consumers are ``not in a flood zone,'' they often believe they don't need flood insurance when, in fact, this is not the case. Properties outside of this special flood hazard area comprise over 20 percent of all NFIP flood insurance claims and receive one-third of Federal disaster assistance for flooding. It is my job to explain the flood insurance options available to consumers and to make sure they understand the consequences of their purchase decision.    As you know, the NFIP is a congressionally authorized program that requires periodic extensions. The NFIP is currently scheduled to expire on September 30, 2017, and the Big ``I'' strongly urges Congress to pass a long-term extension as soon as possible. Instability and uncertainty created by short-term and sometimes retroactive or last-minute extensions can lead to concrete damages in the real estate and development market as well as the country's economy overall.    Briefly, regarding the private market, which I know the subcommittee is exploring in a separate hearing tomorrow, the Big ``I'' supports H.R. 2901, the Flood Insurance Market Parity and Modernization Act, as introduced. I would like to thank Representatives Ross and Murphy for taking the lead on this bipartisan legislation. This bill ensures that policyholders can move seamlessly between the private market and the NFIP. The Big ``I'' believes that the private flood insurance market can play a valuable but limited role as a complement to the NFIP in protecting homes and businesses but lacks the capability to underwrite flood insurance on a pervasive basis to meet customer needs.    In conclusion, the Big ``I'' strongly supports the NFIP and the continued role of our members as the distribution force for the program. The NFIP is essential for millions of Americans, and ensuring the long-term stability of the program is of vital importance. I thank the subcommittee for holding this hearing and I look forward to answering any questions you may have.    [The prepared statement of Mr. Heidrick can be found on page 43 of the appendix.]</t>
   </si>
   <si>
@@ -94,12 +118,18 @@
     <t xml:space="preserve">    Chairman Luetkemeyer. Ms. Templeton-Jones, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Templeton-Jones</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Templeton-Jones. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee. My name is Patty Templeton-Jones. I am executive vice president and chief program advocate of Wright National Flood Insurance Company, which is based in Florida and domiciled in Texas. Thank you for the opportunity to testify.    Wright National Flood Insurance Company is a Write Your Own flood insurance partner with the NFIP for the Write Your Own Program. WNFIC is the largest writer of flood insurance in the Nation. Wright National Flood Insurance Services, our processing center, is also active in the private flood insurance market growing outside of the NFIP. Wright National Flood is a member of the Property Casualty Insurers Association of America, which is composed of nearly 1,000 member companies, including two-thirds of the Write Your Own insurers that partner with the NFIP to administer the National Flood Insurance Program.    My testimony today is provided on behalf of PCI and its nearly 1,000 member companies. Today, I would like to: first, draw your attention to the dramatic increase in private capital available to underwrite flood coverage outside the NFIP; second, underscore the importance of consensus for the long-term reforms needed to provide stability in the NFIP throughout the lengthy transition period necessary for significant market for flood coverage to develop outside the NFIP; third, highlight several key issues policymakers need to consider before any period of transition begins; and finally, suggest several broad categories on which such long-term consensus reforms should focus.    Without question, the biggest change in the flood insurance landscape since Congress last authorized the NFIP is that now, for the first time in a generation, substantial sources of private capital are available and actively interested in writing primary flood insurance coverage. Today, an increasing number of private insurers are planning on entering into the private flood market.    In response, State insurance regulators, like those from Florida and Pennsylvania, are engaging insurers with the intention of fully incorporating flood insurance into the U.S. State system of insurance regulation.    The 48-year-old NFIP has experienced significant turmoil over its history. Program uncertainty and confusion peaked between 2008 and 2012 as the NFIP suffered through a period of more than a dozen short-term program lapses and extensions. Unfortunately, a decade of program uncertainty, lapses, and midstream operational changes have not only caused numerous insurers to leave the Write Your Own Program but have repeatedly disrupted the housing market and caused ripple effects throughout the larger economy.    Developing consensus on long-term reforms, and restructuring and reauthorizing the NFIP well before the September 2017 expiration, is the single most important thing Congress can do to foster certainty in the flood insurance marketplace and encourage the continued development of market-oriented solutions in flood risk management.    The availability and interests of significant sources of private capital to provide primary flood insurance coverage outside the NFIP represents a paradigm shift. It presents the opportunity for a gradual transition toward a flood insurance marketplace in which an increasing share of risk is borne by private capital.    However, the growth of a private primary flood insurance market does not mean the elimination of the need for the NFIP, particularly, as the private market will not be willing to assume all flood risk or be acceptable to all buyers. In advance of any significant transition into the flood insurance market, topics policyholders need to consider are: first, should the NFIP become a national residual market or market of last resort for the substantial number of properties the private market will be unable or unwilling to insure; second, how is the NFIP's mission to encourage the purchase of flood insurance by providing affordable coverage impacted by the growth of the private insurance market; and lastly, how will the NFIP's mapping and flood mitigation functions be funded if policyholders leave the NFIP and purchase private flood insurance?    Detailed in my written testimony are a number of immediate operational reforms that FEMA can take up on its own that the subcommittee may wish to consider in an oversight role. In the immediate term, Congress could and should bolster the development of a robust private flood insurance market by passing the bipartisan and bicameral Ross-Murphy-Heller-Tester Flood Insurance Market Parity and Modernization Act of 2015, H.R. 2901. This straightforward legislation addresses post-Biggert-Waters Flood Insurance Reform Act of 2012 (BW-12) regulatory confusion and provides homeowners greater coverage options in pricing.    In conclusion, PCI and Wright National supports the committee's review of NFIP in consideration of how to encourage additional private participation in flood underwriting and accordingly limit taxpayer risk. We would also suggest that even if the subcommittee and Congress ultimately reshape the marketplace, there will be a necessary long-term transition. Given the NFIP's important role in the lives of so many Americans, it is critical to develop a strong, bipartisan consensus for a stable, long-term reform in advance of the program's 2014 expiration.    I thank the members of the subcommittee for this timely subject: reimagining flood risk management in advance of the November 2017 reauthorization of the NFIP. I am happy to address any questions, and I look forward to working with the subcommittee throughout this process.    [The prepared statement of Ms. Templeton-Jones can be found on page 48 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. Thank you, Ms. Templeton-Jones.    And finally, we will go to Mr. Woods.    Mr. Woods, I want to thank you, again, for your participation last week in our flood mapping roundtable. I realize this is your second visit to D.C. in 2 weeks, so we appreciate your willingness to work with us, to enlighten us, and to represent your association, which you do very well.    So, again, as a fellow Missourian, welcome to our committee, Mr. Woods.    And you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Woods</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Woods. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, thank you for the opportunity to testify today. My name is Tom Woods, and I am a builder from Blue Springs, Missouri, and the National Association of Home Builders (NAHB) chairman of the board. NAHB has a long history of supporting NFIP, and we are committed to ensuring that it remains a viable and affordable program to its policyholders while being mindful of the costs to the American taxpayer.    NAHB commends the subcommittee on addressing this critical issue early in the year, and we look forward to working with you and your colleagues as you contemplate changes to the NFIP to ensure that federally-backed flood insurance remains available, affordable, and financially stable.    The unprecedented losses suffered in 2005 and in 2012, including the devastation brought on by Hurricanes Katrina and Sandy, have severely taxed and threatened the solvency of the     While these events have been tragic and sobering, resulting reforms must not be overreaction to exceptional circumstances.    Instead, reforms should take the form of thoughtful, deliberate, and reasoned solutions. A key step in this process is to take stock of where we are today, what has worked, and what has not.    While the NAHB supports the passage of BW-12 to ensure the continuation of the NFIP, the legislation created unintended consequences that resulted in dramatic flood insurance premium hikes that hurt the sale, construction, and remodeling of homes. The combination of inaccurate mapping into higher risk flood zones, and the immediate shift to full actuarial rates for many homeowners resulted in increases that priced prospective buyers out of their developments and forced the cancellation of sales, harming communities.    HFIAA fixed many of the problems associated with BW-12. It provided that those who were charged higher rates should be refunded for excess premiums, specified that properties should and would continue to pay their grandfathered rates, and repealed the requirement that flood insurance premium increase immediately to full actuarial rates upon the sale of a home. The return to grandfathered rates provided a more affordable rate structure for policyholders. NAHB has estimated that in 2014, because of HFIAA, there was $755 million more in new construction and $361 million a year in additional remodeling.    Any reform efforts need to address the accuracy of the flood insurance rate maps. For flood maps to be fair and accurate, they have to take into account all flood-control structures. Consequently, many properties are incorrectly mapped into flood plains, which results in homeowners being forced to purchase unneeded flood insurance. It typically takes years for those mistakes to be fixed, often requiring a lengthy and costly appeals process for the community, the builder, and the homeowner.    There is an opportunity for home builders or landowners to elevate plots of land out of the flood plain through the letter of map change process. For example, I engaged in a CLOMR-F process in a subdivision I built in Independence, Missouri. It took over 8 months and a quarter of a million dollars for FEMA to approve the map change. In States with short construction seasons, going through the letter of map change process could create devastating costs and delays.    I would like to thank the subcommittee for the opportunity to share NAHB's views. Home builders have long supported commonsense changes to the NFIP, and we urge Congress to continue to support and protect small business owners and homeowners from the exorbitant rate hikes and inaccurate mapping we have seen in the past.    Thank you.    [The prepared statement of Mr. Woods can be found on page 60 of the appendix.]</t>
   </si>
   <si>
@@ -151,6 +181,12 @@
     <t>400313</t>
   </si>
   <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Stevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman.    Mr. Woods, could you give us a little bit more explanation? You said, ``if the regulators would stop being adversarial,'' I think was your last statement. Could you give us a little bit more insight into that adversarial relationship?</t>
   </si>
   <si>
@@ -217,6 +253,12 @@
     <t>412411</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ross. Thank you, Mr. Chairman.    And I thank the panel for being here.    In 1973, it seemed like a good idea that we would carve out from an all-perils policy flood insurance. It just seemed like the thing to do at the time on behalf of consumers. As we fast forward to today, it is somewhat akin to carved-out cardiology coverage under a health insurance policy and led to terrible results and not to the benefit of the consumer. So trying to put these back together, I think, is not necessarily a function of the Federal Government, but more a function of those who are willing to put at risk their capital to make sure that they can not only manage that risk but to do so at the benefit of the consumer.    Mr. Ellis, you talk in your testimony about an all-perils policy, that including flood into an all-perils policy may, quite frankly, not only engage the consumer into wanting to buy flood insurance at a cheaper price because they will have limited risk, but, yet, the price of it would be so much cheaper that we in fact may cover more people through the privatization of flood insurance than putting it into an all-perils policy. Would you expound on that?</t>
   </si>
   <si>
@@ -271,6 +313,12 @@
     <t>400074</t>
   </si>
   <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Wm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and I thank you and the ranking member for conducting this hearing.    Mr. Ellis, the question of how to balance the goals of affordability and risk-based rates has been a key question for Congress in seeking to improve the National Flood Insurance Program over the years. Do you believe that these goals are fundamentally opposed, or do you believe that there is a way to appropriately balance these goals?</t>
   </si>
   <si>
@@ -304,6 +352,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman. We will start with Mr. Ellis, and the question I have is, can you describe how the National Flood Insurance Program discourages private insurance, if at all?</t>
   </si>
   <si>
@@ -355,6 +409,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And thank you, Mr. Ranking Member. And I thank the witnesses for appearing as well. Let's for just a moment look at the markets in terms of how they impact affordability, more specifically, the residual market juxtaposed to the voluntary market.    For our purposes, I think it is fair to say that the residual market is a market of last resort. The voluntary market is a competitive market. And the way we structure the residual market is going to have a lot to do with affordability. So I would like, Mr. Ellis, to visit with you, because I have read your testimony in its entirety, and the last paragraph of it where you give your conclusion, I think, is quite revealing. You indicate that the Federal Government will develop the residual market. How will that market be developed such that we will still have competition in the voluntary market, and not have the taxpayers assume all of the high-risk persons that the voluntary competitive market does not find beneficial in the sense of profits and loss, market demands?    And I mention this to you because, as you know, with the health insurance we find ourselves with insurance companies assuming a lot of clients, if you will, who are not over age 62 to 65. When you get above that, insurance companies are not enthralled with the notion of having you as a client, customer. And given that I am above that age, I kind of look into these things, as you can well understand. I see you smiling, so you understand what I am talking about.    So what I am interested in is finding out how do we have a residual market that will have a positive impact on affordability given that the voluntary market is where everybody wants to be, and getting insurance companies to go residual can be exceedingly difficult?</t>
   </si>
   <si>
@@ -382,6 +442,9 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman. Mr. Heidrick, in your written testimony you assert that ``private insurance industry lacks the capability to underwrite flood insurance on a pervasive basis to meet customer needs.'' Could you elaborate on how you and the Big ``I'' arrived at that assessment?</t>
   </si>
   <si>
@@ -427,6 +490,12 @@
     <t>400661</t>
   </si>
   <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much, Mr. Chairman, and let me join the chairman and the ranking member in thanking and welcoming this distinguished panel.    It is hard to know who to ask questions of because all of your testimony has been very compelling. But I want to ask a question, and I want to prioritize getting answers from Mr. Ellis, Mr. Woods, and Mr. Heidrick.    And I just want to reference the fact that Ms. Templeton-Jones, in your testimony you talked about the number of insurers that are just leaving the program because of the lapses and so on. So with that in mind, my question relates to a provision that I was able to get into the Biggert-Waters legislation, just a simple study of community-based insurance, and I was just wondering how some of the challenges, I believe it was Mr. Ellis, you mentioned, you laid it out very clearly, the debt, adverse selection, subsidies, the accuracy or lack thereof of the mapping.    How would a community-based flood program fit in with some of the solutions that you all have suggested, giving incentives for cities and States to do mitigation, really bringing more re-insurance and money and private sector dollars into a program, maybe mitigating the adverse selection by having a community-wide effort? I'm just wondering what your thoughts were on that?</t>
   </si>
   <si>
@@ -458,6 +527,12 @@
   </si>
   <si>
     <t>400348</t>
+  </si>
+  <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I just would build on a conversation that Mr. Clay had, and this was, Mr. Ellis, in your testimony you said that masking subsidies with lower rates prevents policyholders from understanding their true level of risk. Is my understanding correct that under the current program, policyholders just see the premium payment that they need to make. Right?</t>
@@ -932,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,4013 +1037,4765 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G69" t="s">
+        <v>99</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G85" t="s">
+        <v>112</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G87" t="s">
+        <v>112</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>131</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G107" t="s">
+        <v>142</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G109" t="s">
+        <v>142</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G111" t="s">
+        <v>142</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>121</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G113" t="s">
+        <v>142</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G115" t="s">
+        <v>142</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
       <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G119" t="s">
+        <v>158</v>
+      </c>
       <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G121" t="s">
+        <v>158</v>
+      </c>
       <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G123" t="s">
+        <v>158</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G125" t="s">
+        <v>158</v>
+      </c>
       <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G127" t="s">
+        <v>171</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
       <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>171</v>
+      </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
       <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G131" t="s">
+        <v>171</v>
+      </c>
       <c r="H131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
       <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G133" t="s">
+        <v>171</v>
+      </c>
       <c r="H133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>147</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G135" t="s">
+        <v>171</v>
+      </c>
       <c r="H135" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>147</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G137" t="s">
+        <v>171</v>
+      </c>
       <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>147</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G139" t="s">
+        <v>171</v>
+      </c>
       <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G145" t="s">
+        <v>55</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
       <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G147" t="s">
+        <v>55</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
       <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G149" t="s">
+        <v>55</v>
+      </c>
       <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G151" t="s">
+        <v>55</v>
+      </c>
       <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G153" t="s">
+        <v>55</v>
+      </c>
       <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G155" t="s">
+        <v>55</v>
+      </c>
       <c r="H155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
       <c r="H157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>55</v>
+      </c>
       <c r="H159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>24</v>
+      </c>
       <c r="H161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>24</v>
+      </c>
       <c r="H163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
       <c r="H165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I165" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99798.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412292</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Luetkemeyer</t>
@@ -1007,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1021,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,4762 +1046,5180 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G103" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G119" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>37</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>39</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>39</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I127" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G129" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G131" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I131" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G133" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>36</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G135" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G137" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G139" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I139" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>39</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G145" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I145" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G146" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I146" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G147" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I147" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G148" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I148" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I149" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G151" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I151" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G153" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>34</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G155" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I155" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" t="s">
-        <v>34</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>36</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G157" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I157" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>34</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I159" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I161" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I163" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I165" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>31</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>214</v>
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
